--- a/medicine/Psychotrope/Sirop_d'orge_malté/Sirop_d'orge_malté.xlsx
+++ b/medicine/Psychotrope/Sirop_d'orge_malté/Sirop_d'orge_malté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sirop_d%27orge_malt%C3%A9</t>
+          <t>Sirop_d'orge_malté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sirop d'orge malté ou de malt ou de maltose, est un concentré édulcorant produit à partir de grains d'orge germés.
 Les grains d'orge sont germés, séchés, grillés puis moulus pour donner une farine principalement composé d'amidon (un polysaccharide). L'action d'enzymes comme l'amylase, dans un fermenteur, conduit à l'hydrolyse enzymatique de l’amidon en sucre simple (principalement du maltose). Le sirop de malt d’orge est une sorte de mélasse sucrée, destinée à édulcorer des préparations culinaires, à faire de la bière ou du whisky.
